--- a/beginning/Northampton_data_errors.xlsx
+++ b/beginning/Northampton_data_errors.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hmir\Documents\EJCapstone-\beginning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mraisle\Desktop\EJCapstone-\beginning\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3228BC8-3EC0-4B32-83BA-211714082DD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="4140" yWindow="2835" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Northampton_data" sheetId="1" r:id="rId1"/>
@@ -19,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>hmir</author>
   </authors>
   <commentList>
-    <comment ref="J238" authorId="0" shapeId="0">
+    <comment ref="J238" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -3583,7 +3584,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4407,27 +4408,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:EC270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A150" workbookViewId="0">
-      <selection activeCell="A164" sqref="A164:XFD164"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="O186" sqref="O186"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="28.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="49.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="49.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="35.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +4831,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>133</v>
       </c>
@@ -5013,7 +5016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>145</v>
       </c>
@@ -5213,7 +5216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>151</v>
       </c>
@@ -5413,7 +5416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>159</v>
       </c>
@@ -5601,7 +5604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>169</v>
       </c>
@@ -5789,7 +5792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>176</v>
       </c>
@@ -5977,7 +5980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>182</v>
       </c>
@@ -6162,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>186</v>
       </c>
@@ -6236,7 +6239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>195</v>
       </c>
@@ -6430,7 +6433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>197</v>
       </c>
@@ -6582,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>203</v>
       </c>
@@ -6788,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>210</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>217</v>
       </c>
@@ -7200,7 +7203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>222</v>
       </c>
@@ -7388,7 +7391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>228</v>
       </c>
@@ -7594,7 +7597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>236</v>
       </c>
@@ -7797,7 +7800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>242</v>
       </c>
@@ -7997,7 +8000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>246</v>
       </c>
@@ -8197,7 +8200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>250</v>
       </c>
@@ -8403,7 +8406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>256</v>
       </c>
@@ -8603,7 +8606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>257</v>
       </c>
@@ -8803,7 +8806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>262</v>
       </c>
@@ -9003,7 +9006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>266</v>
       </c>
@@ -9191,7 +9194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>270</v>
       </c>
@@ -9394,7 +9397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>274</v>
       </c>
@@ -9576,7 +9579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>279</v>
       </c>
@@ -9764,7 +9767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>285</v>
       </c>
@@ -9838,7 +9841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>289</v>
       </c>
@@ -10038,7 +10041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>293</v>
       </c>
@@ -10238,7 +10241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>297</v>
       </c>
@@ -10438,7 +10441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>301</v>
       </c>
@@ -10638,7 +10641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>305</v>
       </c>
@@ -10844,7 +10847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>310</v>
       </c>
@@ -11047,7 +11050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>314</v>
       </c>
@@ -11235,7 +11238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>320</v>
       </c>
@@ -11441,7 +11444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>325</v>
       </c>
@@ -11647,7 +11650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>331</v>
       </c>
@@ -11721,7 +11724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>336</v>
       </c>
@@ -11912,7 +11915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>344</v>
       </c>
@@ -11989,7 +11992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>346</v>
       </c>
@@ -12192,7 +12195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>350</v>
       </c>
@@ -12380,7 +12383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>354</v>
       </c>
@@ -12568,7 +12571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>358</v>
       </c>
@@ -12720,7 +12723,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>359</v>
       </c>
@@ -12794,7 +12797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>360</v>
       </c>
@@ -12982,7 +12985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>364</v>
       </c>
@@ -13155,7 +13158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>365</v>
       </c>
@@ -13229,7 +13232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>366</v>
       </c>
@@ -13417,7 +13420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>367</v>
       </c>
@@ -13620,7 +13623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>371</v>
       </c>
@@ -13805,7 +13808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>375</v>
       </c>
@@ -13993,7 +13996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>379</v>
       </c>
@@ -14181,7 +14184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>383</v>
       </c>
@@ -14375,7 +14378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>387</v>
       </c>
@@ -14578,7 +14581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>391</v>
       </c>
@@ -14757,7 +14760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>397</v>
       </c>
@@ -14963,7 +14966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>402</v>
       </c>
@@ -15151,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>406</v>
       </c>
@@ -15339,7 +15342,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>410</v>
       </c>
@@ -15527,7 +15530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>411</v>
       </c>
@@ -15715,7 +15718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>415</v>
       </c>
@@ -15903,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>419</v>
       </c>
@@ -16091,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>423</v>
       </c>
@@ -16165,7 +16168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>424</v>
       </c>
@@ -16371,7 +16374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>429</v>
       </c>
@@ -16559,7 +16562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>435</v>
       </c>
@@ -16747,7 +16750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>439</v>
       </c>
@@ -16950,7 +16953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>443</v>
       </c>
@@ -17138,7 +17141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>448</v>
       </c>
@@ -17326,7 +17329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>449</v>
       </c>
@@ -17400,7 +17403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>450</v>
       </c>
@@ -17474,7 +17477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>451</v>
       </c>
@@ -17662,7 +17665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>455</v>
       </c>
@@ -17850,7 +17853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>460</v>
       </c>
@@ -18038,7 +18041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>464</v>
       </c>
@@ -18223,7 +18226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>465</v>
       </c>
@@ -18411,7 +18414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>469</v>
       </c>
@@ -18596,7 +18599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>470</v>
       </c>
@@ -18781,7 +18784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>474</v>
       </c>
@@ -18969,7 +18972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>475</v>
       </c>
@@ -19157,7 +19160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>476</v>
       </c>
@@ -19363,7 +19366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>478</v>
       </c>
@@ -19551,7 +19554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>482</v>
       </c>
@@ -19757,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>487</v>
       </c>
@@ -19939,7 +19942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>492</v>
       </c>
@@ -20145,7 +20148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>499</v>
       </c>
@@ -20219,7 +20222,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>503</v>
       </c>
@@ -20293,7 +20296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>504</v>
       </c>
@@ -20481,7 +20484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>508</v>
       </c>
@@ -20669,7 +20672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>509</v>
       </c>
@@ -20869,7 +20872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>512</v>
       </c>
@@ -21057,7 +21060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>513</v>
       </c>
@@ -21245,7 +21248,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>517</v>
       </c>
@@ -21319,7 +21322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>521</v>
       </c>
@@ -21507,7 +21510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>525</v>
       </c>
@@ -21695,7 +21698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>529</v>
       </c>
@@ -21769,7 +21772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>530</v>
       </c>
@@ -21975,7 +21978,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>535</v>
       </c>
@@ -22163,7 +22166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>539</v>
       </c>
@@ -22351,7 +22354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>544</v>
       </c>
@@ -22425,7 +22428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>546</v>
       </c>
@@ -22613,7 +22616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>550</v>
       </c>
@@ -22801,7 +22804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>554</v>
       </c>
@@ -22989,7 +22992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>559</v>
       </c>
@@ -23195,7 +23198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>564</v>
       </c>
@@ -23401,7 +23404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>569</v>
       </c>
@@ -23589,7 +23592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>574</v>
       </c>
@@ -23777,7 +23780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>578</v>
       </c>
@@ -23965,7 +23968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>582</v>
       </c>
@@ -24153,7 +24156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>586</v>
       </c>
@@ -24359,7 +24362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>591</v>
       </c>
@@ -24433,7 +24436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>595</v>
       </c>
@@ -24621,7 +24624,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>599</v>
       </c>
@@ -24827,7 +24830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>604</v>
       </c>
@@ -24901,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>605</v>
       </c>
@@ -25089,7 +25092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>609</v>
       </c>
@@ -25277,7 +25280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>614</v>
       </c>
@@ -25465,7 +25468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>618</v>
       </c>
@@ -25653,7 +25656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>620</v>
       </c>
@@ -25859,7 +25862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>625</v>
       </c>
@@ -26047,7 +26050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>629</v>
       </c>
@@ -26235,7 +26238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>633</v>
       </c>
@@ -26423,7 +26426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>637</v>
       </c>
@@ -26623,7 +26626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>639</v>
       </c>
@@ -26811,7 +26814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>640</v>
       </c>
@@ -26885,7 +26888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>644</v>
       </c>
@@ -27073,7 +27076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>645</v>
       </c>
@@ -27264,7 +27267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>647</v>
       </c>
@@ -27338,7 +27341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>651</v>
       </c>
@@ -27526,7 +27529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>655</v>
       </c>
@@ -27732,7 +27735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>660</v>
       </c>
@@ -27920,7 +27923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>661</v>
       </c>
@@ -28126,7 +28129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>666</v>
       </c>
@@ -28314,7 +28317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>670</v>
       </c>
@@ -28520,7 +28523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>675</v>
       </c>
@@ -28594,7 +28597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>679</v>
       </c>
@@ -28782,7 +28785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>683</v>
       </c>
@@ -28856,7 +28859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>687</v>
       </c>
@@ -29044,7 +29047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>691</v>
       </c>
@@ -29232,7 +29235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>693</v>
       </c>
@@ -29420,7 +29423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>697</v>
       </c>
@@ -29608,7 +29611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>698</v>
       </c>
@@ -29796,7 +29799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>702</v>
       </c>
@@ -29984,7 +29987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>706</v>
       </c>
@@ -30190,7 +30193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>711</v>
       </c>
@@ -30396,7 +30399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>717</v>
       </c>
@@ -30584,7 +30587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>721</v>
       </c>
@@ -30658,7 +30661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>724</v>
       </c>
@@ -30846,7 +30849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>728</v>
       </c>
@@ -31034,7 +31037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>731</v>
       </c>
@@ -31240,7 +31243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>736</v>
       </c>
@@ -31428,7 +31431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>743</v>
       </c>
@@ -31634,7 +31637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>746</v>
       </c>
@@ -31822,7 +31825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>750</v>
       </c>
@@ -32010,7 +32013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>752</v>
       </c>
@@ -32195,7 +32198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>754</v>
       </c>
@@ -32383,7 +32386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>758</v>
       </c>
@@ -32571,7 +32574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>762</v>
       </c>
@@ -32759,7 +32762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>764</v>
       </c>
@@ -32947,7 +32950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>768</v>
       </c>
@@ -33135,7 +33138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>769</v>
       </c>
@@ -33323,7 +33326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>772</v>
       </c>
@@ -33511,7 +33514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>776</v>
       </c>
@@ -33702,7 +33705,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>777</v>
       </c>
@@ -33890,7 +33893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>782</v>
       </c>
@@ -34096,7 +34099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>787</v>
       </c>
@@ -34284,7 +34287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>791</v>
       </c>
@@ -34490,7 +34493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>796</v>
       </c>
@@ -34693,7 +34696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>799</v>
       </c>
@@ -34881,7 +34884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="3" t="s">
         <v>802</v>
       </c>
@@ -35072,7 +35075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>803</v>
       </c>
@@ -35260,7 +35263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>806</v>
       </c>
@@ -35466,7 +35469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>811</v>
       </c>
@@ -35672,7 +35675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>816</v>
       </c>
@@ -35860,7 +35863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>820</v>
       </c>
@@ -36066,7 +36069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>825</v>
       </c>
@@ -36272,7 +36275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>830</v>
       </c>
@@ -36460,7 +36463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>834</v>
       </c>
@@ -36648,7 +36651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>835</v>
       </c>
@@ -36836,7 +36839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>839</v>
       </c>
@@ -37018,7 +37021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>843</v>
       </c>
@@ -37224,7 +37227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>848</v>
       </c>
@@ -37298,7 +37301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>852</v>
       </c>
@@ -37504,7 +37507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>857</v>
       </c>
@@ -37692,7 +37695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>861</v>
       </c>
@@ -37898,7 +37901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>866</v>
       </c>
@@ -38086,7 +38089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>867</v>
       </c>
@@ -38292,7 +38295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>872</v>
       </c>
@@ -38477,7 +38480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>875</v>
       </c>
@@ -38551,7 +38554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>879</v>
       </c>
@@ -38757,7 +38760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>884</v>
       </c>
@@ -38945,7 +38948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>885</v>
       </c>
@@ -39151,7 +39154,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>890</v>
       </c>
@@ -39357,7 +39360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>893</v>
       </c>
@@ -39545,7 +39548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>897</v>
       </c>
@@ -39751,7 +39754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>903</v>
       </c>
@@ -39939,7 +39942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>907</v>
       </c>
@@ -40127,7 +40130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>911</v>
       </c>
@@ -40333,7 +40336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>916</v>
       </c>
@@ -40521,7 +40524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>920</v>
       </c>
@@ -40709,7 +40712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>924</v>
       </c>
@@ -40897,7 +40900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>928</v>
       </c>
@@ -41085,7 +41088,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>932</v>
       </c>
@@ -41291,7 +41294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>937</v>
       </c>
@@ -41479,7 +41482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>941</v>
       </c>
@@ -41661,7 +41664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>945</v>
       </c>
@@ -41849,7 +41852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>949</v>
       </c>
@@ -42037,7 +42040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>953</v>
       </c>
@@ -42111,7 +42114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>954</v>
       </c>
@@ -42317,7 +42320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>959</v>
       </c>
@@ -42523,7 +42526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>964</v>
       </c>
@@ -42729,7 +42732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>970</v>
       </c>
@@ -42917,7 +42920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>972</v>
       </c>
@@ -43105,7 +43108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>973</v>
       </c>
@@ -43293,7 +43296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>974</v>
       </c>
@@ -43475,7 +43478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>977</v>
       </c>
@@ -43663,7 +43666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>981</v>
       </c>
@@ -43854,7 +43857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>985</v>
       </c>
@@ -44042,7 +44045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>990</v>
       </c>
@@ -44248,7 +44251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>995</v>
       </c>
@@ -44436,7 +44439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>999</v>
       </c>
@@ -44624,7 +44627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>1003</v>
       </c>
@@ -44698,7 +44701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>1006</v>
       </c>
@@ -44886,7 +44889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>1010</v>
       </c>
@@ -45068,7 +45071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>1013</v>
       </c>
@@ -45256,7 +45259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>1014</v>
       </c>
@@ -45444,7 +45447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>1018</v>
       </c>
@@ -45650,7 +45653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>1023</v>
       </c>
@@ -45838,7 +45841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>1029</v>
       </c>
@@ -46026,7 +46029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>1031</v>
       </c>
@@ -46211,7 +46214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>1034</v>
       </c>
@@ -46399,7 +46402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>1038</v>
       </c>
@@ -46581,7 +46584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>1044</v>
       </c>
@@ -46787,7 +46790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>1049</v>
       </c>
@@ -46993,7 +46996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>1051</v>
       </c>
@@ -47196,7 +47199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>1055</v>
       </c>
@@ -47372,7 +47375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>1060</v>
       </c>
@@ -47548,7 +47551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>1064</v>
       </c>
@@ -47754,7 +47757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>1069</v>
       </c>
@@ -47930,7 +47933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>1073</v>
       </c>
@@ -48112,7 +48115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>1077</v>
       </c>
@@ -48294,7 +48297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>1081</v>
       </c>
@@ -48500,7 +48503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>1082</v>
       </c>
@@ -48676,7 +48679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>1087</v>
       </c>
@@ -48858,7 +48861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>1090</v>
       </c>
@@ -49040,7 +49043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>1094</v>
       </c>
@@ -49222,7 +49225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>1098</v>
       </c>
@@ -49428,7 +49431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>1103</v>
       </c>
@@ -49634,7 +49637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>1108</v>
       </c>
@@ -49813,7 +49816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>1111</v>
       </c>
@@ -49989,7 +49992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>1115</v>
       </c>
@@ -50171,7 +50174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>1119</v>
       </c>
@@ -50353,7 +50356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>1123</v>
       </c>
@@ -50535,7 +50538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>1124</v>
       </c>
@@ -50717,7 +50720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>1128</v>
       </c>
@@ -50923,7 +50926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>1132</v>
       </c>
@@ -51105,7 +51108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>1136</v>
       </c>
@@ -51311,7 +51314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>1141</v>
       </c>
@@ -51493,7 +51496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>1145</v>
       </c>
@@ -51675,7 +51678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>1146</v>
       </c>
@@ -51857,7 +51860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>1147</v>
       </c>
@@ -52039,7 +52042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>1151</v>
       </c>
@@ -52218,7 +52221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>1152</v>
       </c>
@@ -52424,7 +52427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>1154</v>
       </c>
@@ -52606,7 +52609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>1158</v>
       </c>
@@ -52782,7 +52785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>1162</v>
       </c>
@@ -52982,7 +52985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:133" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:133" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>1166</v>
       </c>
@@ -53164,7 +53167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>1170</v>
       </c>
@@ -53337,7 +53340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:133" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>1173</v>
       </c>
